--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.1896624962686</v>
+        <v>286.7093113887097</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.5367220758072</v>
+        <v>392.2883285641502</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.0447963199013</v>
+        <v>354.848881066114</v>
       </c>
       <c r="AD2" t="n">
-        <v>218189.6624962686</v>
+        <v>286709.3113887097</v>
       </c>
       <c r="AE2" t="n">
-        <v>298536.7220758072</v>
+        <v>392288.3285641501</v>
       </c>
       <c r="AF2" t="n">
         <v>1.147724669302157e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>270044.7963199012</v>
+        <v>354848.8810661139</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.6293510025943</v>
+        <v>176.7502816950635</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.3105498201078</v>
+        <v>241.8375330871721</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.3384552408464</v>
+        <v>218.7568983505119</v>
       </c>
       <c r="AD3" t="n">
-        <v>137629.3510025943</v>
+        <v>176750.2816950635</v>
       </c>
       <c r="AE3" t="n">
-        <v>188310.5498201078</v>
+        <v>241837.5330871721</v>
       </c>
       <c r="AF3" t="n">
         <v>1.713245701323876e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.16015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>170338.4552408464</v>
+        <v>218756.8983505119</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.5439386103601</v>
+        <v>159.6307038840486</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.9335348298674</v>
+        <v>218.4137714636839</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.1925097514205</v>
+        <v>197.5686676609061</v>
       </c>
       <c r="AD4" t="n">
-        <v>120543.9386103601</v>
+        <v>159630.7038840486</v>
       </c>
       <c r="AE4" t="n">
-        <v>164933.5348298674</v>
+        <v>218413.7714636839</v>
       </c>
       <c r="AF4" t="n">
         <v>1.9124003285526e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>149192.5097514205</v>
+        <v>197568.6676609061</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.3261450984372</v>
+        <v>146.48023017983</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.8483666189689</v>
+        <v>200.4207131836269</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.8333646118714</v>
+        <v>181.2928416096761</v>
       </c>
       <c r="AD5" t="n">
-        <v>107326.1450984372</v>
+        <v>146480.23017983</v>
       </c>
       <c r="AE5" t="n">
-        <v>146848.3666189689</v>
+        <v>200420.7131836269</v>
       </c>
       <c r="AF5" t="n">
         <v>2.014304045934978e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>132833.3646118714</v>
+        <v>181292.841609676</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.1402669506906</v>
+        <v>144.2943520320834</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.8575517030856</v>
+        <v>197.4298982677436</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.1279888739239</v>
+        <v>178.5874658717286</v>
       </c>
       <c r="AD6" t="n">
-        <v>105140.2669506906</v>
+        <v>144294.3520320834</v>
       </c>
       <c r="AE6" t="n">
-        <v>143857.5517030856</v>
+        <v>197429.8982677436</v>
       </c>
       <c r="AF6" t="n">
         <v>2.080504095126369e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.545572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>130127.9888739239</v>
+        <v>178587.4658717286</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.4926089840576</v>
+        <v>142.5452088389652</v>
       </c>
       <c r="AB7" t="n">
-        <v>141.6031533836002</v>
+        <v>195.0366433841689</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.0887471659815</v>
+        <v>176.4226198752872</v>
       </c>
       <c r="AD7" t="n">
-        <v>103492.6089840576</v>
+        <v>142545.2088389652</v>
       </c>
       <c r="AE7" t="n">
-        <v>141603.1533836002</v>
+        <v>195036.6433841689</v>
       </c>
       <c r="AF7" t="n">
         <v>2.121848991107154e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>128088.7471659815</v>
+        <v>176422.6198752872</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.4515674527704</v>
+        <v>141.504167307678</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.1787544329828</v>
+        <v>193.6122444335516</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.8002908520542</v>
+        <v>175.1341635613598</v>
       </c>
       <c r="AD8" t="n">
-        <v>102451.5674527704</v>
+        <v>141504.1673076781</v>
       </c>
       <c r="AE8" t="n">
-        <v>140178.7544329828</v>
+        <v>193612.2444335516</v>
       </c>
       <c r="AF8" t="n">
         <v>2.151573922153396e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>126800.2908520542</v>
+        <v>175134.1635613598</v>
       </c>
     </row>
     <row r="9">
@@ -3494,28 +3494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>102.5566741654963</v>
+        <v>141.609274020404</v>
       </c>
       <c r="AB9" t="n">
-        <v>140.3225660743152</v>
+        <v>193.756056074884</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.9303773121788</v>
+        <v>175.2642500214845</v>
       </c>
       <c r="AD9" t="n">
-        <v>102556.6741654963</v>
+        <v>141609.274020404</v>
       </c>
       <c r="AE9" t="n">
-        <v>140322.5660743152</v>
+        <v>193756.056074884</v>
       </c>
       <c r="AF9" t="n">
         <v>2.150561394088561e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>126930.3773121788</v>
+        <v>175264.2500214844</v>
       </c>
     </row>
   </sheetData>
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.3015052818771</v>
+        <v>230.384800182525</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.7505209324899</v>
+        <v>315.2226474696386</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.2508220926955</v>
+        <v>285.1382404129941</v>
       </c>
       <c r="AD2" t="n">
-        <v>172301.5052818771</v>
+        <v>230384.800182525</v>
       </c>
       <c r="AE2" t="n">
-        <v>235750.5209324899</v>
+        <v>315222.6474696386</v>
       </c>
       <c r="AF2" t="n">
         <v>1.478877694156132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>213250.8220926955</v>
+        <v>285138.2404129941</v>
       </c>
     </row>
     <row r="3">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.4348873249372</v>
+        <v>157.0897641176647</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.0478378163773</v>
+        <v>214.9371455769683</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.5822196107958</v>
+        <v>194.4238460693424</v>
       </c>
       <c r="AD3" t="n">
-        <v>118434.8873249372</v>
+        <v>157089.7641176647</v>
       </c>
       <c r="AE3" t="n">
-        <v>162047.8378163773</v>
+        <v>214937.1455769683</v>
       </c>
       <c r="AF3" t="n">
         <v>2.03474937025759e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>146582.2196107958</v>
+        <v>194423.8460693424</v>
       </c>
     </row>
     <row r="4">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.4738839738208</v>
+        <v>142.1960805742527</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.577532998505</v>
+        <v>194.5589506899375</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.0655719544814</v>
+        <v>175.9905175013472</v>
       </c>
       <c r="AD4" t="n">
-        <v>103473.8839738208</v>
+        <v>142196.0805742527</v>
       </c>
       <c r="AE4" t="n">
-        <v>141577.532998505</v>
+        <v>194558.9506899375</v>
       </c>
       <c r="AF4" t="n">
         <v>2.224462704596397e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>128065.5719544814</v>
+        <v>175990.5175013472</v>
       </c>
     </row>
     <row r="5">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.7493207918349</v>
+        <v>139.3700321657816</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.8496654536694</v>
+        <v>190.6922265810126</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.6934868560288</v>
+        <v>172.4928281143956</v>
       </c>
       <c r="AD5" t="n">
-        <v>100749.3207918349</v>
+        <v>139370.0321657816</v>
       </c>
       <c r="AE5" t="n">
-        <v>137849.6654536694</v>
+        <v>190692.2265810126</v>
       </c>
       <c r="AF5" t="n">
         <v>2.324199372718621e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.389322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>124693.4868560288</v>
+        <v>172492.8281143956</v>
       </c>
     </row>
     <row r="6">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.4057618311281</v>
+        <v>138.0264732050748</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.0113488099933</v>
+        <v>188.8539099373365</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.0306165727309</v>
+        <v>170.8299578310977</v>
       </c>
       <c r="AD6" t="n">
-        <v>99405.7618311281</v>
+        <v>138026.4732050748</v>
       </c>
       <c r="AE6" t="n">
-        <v>136011.3488099933</v>
+        <v>188853.9099373365</v>
       </c>
       <c r="AF6" t="n">
         <v>2.362711812670603e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>123030.6165727309</v>
+        <v>170829.9578310977</v>
       </c>
     </row>
     <row r="7">
@@ -4321,28 +4321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.19675903650743</v>
+        <v>128.2052520979078</v>
       </c>
       <c r="AB7" t="n">
-        <v>135.7253819658409</v>
+        <v>175.4160819368216</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.7719420028274</v>
+        <v>158.6746172748375</v>
       </c>
       <c r="AD7" t="n">
-        <v>99196.75903650743</v>
+        <v>128205.2520979078</v>
       </c>
       <c r="AE7" t="n">
-        <v>135725.3819658409</v>
+        <v>175416.0819368216</v>
       </c>
       <c r="AF7" t="n">
         <v>2.380174302566639e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>122771.9420028274</v>
+        <v>158674.6172748375</v>
       </c>
     </row>
   </sheetData>
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.4205019316937</v>
+        <v>142.7751090828948</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.2409815671887</v>
+        <v>195.3512030403961</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.4748247299443</v>
+        <v>176.7071583994115</v>
       </c>
       <c r="AD2" t="n">
-        <v>105420.5019316937</v>
+        <v>142775.1090828948</v>
       </c>
       <c r="AE2" t="n">
-        <v>144240.9815671887</v>
+        <v>195351.2030403962</v>
       </c>
       <c r="AF2" t="n">
         <v>2.930679326876205e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>130474.8247299443</v>
+        <v>176707.1583994115</v>
       </c>
     </row>
     <row r="3">
@@ -4724,28 +4724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.71466812281817</v>
+        <v>129.0351098552385</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.4880550911816</v>
+        <v>176.5515299311413</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.5116512369038</v>
+        <v>159.7016997061911</v>
       </c>
       <c r="AD3" t="n">
-        <v>91714.66812281817</v>
+        <v>129035.1098552385</v>
       </c>
       <c r="AE3" t="n">
-        <v>125488.0550911816</v>
+        <v>176551.5299311413</v>
       </c>
       <c r="AF3" t="n">
         <v>3.23616245930531e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>113511.6512369038</v>
+        <v>159701.6997061911</v>
       </c>
     </row>
   </sheetData>
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.7946049640872</v>
+        <v>163.6917310890786</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.1177281780841</v>
+        <v>223.970248045479</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.6910537695644</v>
+        <v>202.5948419163003</v>
       </c>
       <c r="AD2" t="n">
-        <v>125794.6049640871</v>
+        <v>163691.7310890786</v>
       </c>
       <c r="AE2" t="n">
-        <v>172117.7281780842</v>
+        <v>223970.248045479</v>
       </c>
       <c r="AF2" t="n">
         <v>2.253266684849906e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.212239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>155691.0537695644</v>
+        <v>202594.8419163003</v>
       </c>
     </row>
     <row r="3">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.93786279412853</v>
+        <v>133.7666580815583</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.2664163546651</v>
+        <v>183.0254429555644</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.7385338113832</v>
+        <v>165.5577515577592</v>
       </c>
       <c r="AD3" t="n">
-        <v>95937.86279412854</v>
+        <v>133766.6580815584</v>
       </c>
       <c r="AE3" t="n">
-        <v>131266.4163546651</v>
+        <v>183025.4429555644</v>
       </c>
       <c r="AF3" t="n">
         <v>2.772733789656464e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>118738.5338113832</v>
+        <v>165557.7515577592</v>
       </c>
     </row>
     <row r="4">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.22513282389086</v>
+        <v>122.6396888204035</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.9229836490736</v>
+        <v>167.8010327252213</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.6187550341841</v>
+        <v>151.7863376722013</v>
       </c>
       <c r="AD4" t="n">
-        <v>94225.13282389086</v>
+        <v>122639.6888204035</v>
       </c>
       <c r="AE4" t="n">
-        <v>128922.9836490736</v>
+        <v>167801.0327252213</v>
       </c>
       <c r="AF4" t="n">
         <v>2.873075244286113e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>116618.7550341841</v>
+        <v>151786.3376722013</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.65027750214922</v>
+        <v>126.6552502668574</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.6634647694973</v>
+        <v>173.2953010503249</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9566358511827</v>
+        <v>156.7562407396128</v>
       </c>
       <c r="AD2" t="n">
-        <v>89650.27750214923</v>
+        <v>126655.2502668574</v>
       </c>
       <c r="AE2" t="n">
-        <v>122663.4647694973</v>
+        <v>173295.3010503249</v>
       </c>
       <c r="AF2" t="n">
         <v>3.598583825927444e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110956.6358511827</v>
+        <v>156756.2407396128</v>
       </c>
     </row>
     <row r="3">
@@ -5636,28 +5636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.71978496667469</v>
+        <v>126.7247577313829</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.758567948914</v>
+        <v>173.3904042297415</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.042662516634</v>
+        <v>156.842267405064</v>
       </c>
       <c r="AD3" t="n">
-        <v>89719.78496667469</v>
+        <v>126724.7577313829</v>
       </c>
       <c r="AE3" t="n">
-        <v>122758.567948914</v>
+        <v>173390.4042297415</v>
       </c>
       <c r="AF3" t="n">
         <v>3.604066000645266e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>111042.662516634</v>
+        <v>156842.267405064</v>
       </c>
     </row>
   </sheetData>
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.1865914534983</v>
+        <v>246.3728438387537</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.485196633033</v>
+        <v>337.0981941427852</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9111708491946</v>
+        <v>304.9260156141852</v>
       </c>
       <c r="AD2" t="n">
-        <v>188186.5914534983</v>
+        <v>246372.8438387537</v>
       </c>
       <c r="AE2" t="n">
-        <v>257485.196633033</v>
+        <v>337098.1941427853</v>
       </c>
       <c r="AF2" t="n">
         <v>1.3830204480271e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>232911.1708491946</v>
+        <v>304926.0156141852</v>
       </c>
     </row>
     <row r="3">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.6816069980315</v>
+        <v>169.1920850733839</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.12189879138</v>
+        <v>231.4960750252936</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.3628965208168</v>
+        <v>209.4024145317283</v>
       </c>
       <c r="AD3" t="n">
-        <v>120681.6069980315</v>
+        <v>169192.0850733839</v>
       </c>
       <c r="AE3" t="n">
-        <v>165121.89879138</v>
+        <v>231496.0750252936</v>
       </c>
       <c r="AF3" t="n">
         <v>1.945104175378198e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>149362.8965208168</v>
+        <v>209402.4145317283</v>
       </c>
     </row>
     <row r="4">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.5150389072542</v>
+        <v>144.3507537025607</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.3703312278275</v>
+        <v>197.5070695215566</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.5918294405152</v>
+        <v>178.6572720093883</v>
       </c>
       <c r="AD4" t="n">
-        <v>105515.0389072542</v>
+        <v>144350.7537025607</v>
       </c>
       <c r="AE4" t="n">
-        <v>144370.3312278275</v>
+        <v>197507.0695215566</v>
       </c>
       <c r="AF4" t="n">
         <v>2.12766040336748e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.877604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>130591.8294405152</v>
+        <v>178657.2720093883</v>
       </c>
     </row>
     <row r="5">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.5269790726732</v>
+        <v>141.2612086414945</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.2819359382596</v>
+        <v>193.2798176678995</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.8936248592836</v>
+        <v>174.8334631396576</v>
       </c>
       <c r="AD5" t="n">
-        <v>102526.9790726732</v>
+        <v>141261.2086414945</v>
       </c>
       <c r="AE5" t="n">
-        <v>140281.9359382596</v>
+        <v>193279.8176678995</v>
       </c>
       <c r="AF5" t="n">
         <v>2.237060286186777e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>126893.6248592836</v>
+        <v>174833.4631396576</v>
       </c>
     </row>
     <row r="6">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.1628433098126</v>
+        <v>129.2564750173689</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.0472210892065</v>
+        <v>176.8544115119097</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.9676266554723</v>
+        <v>159.9756746939879</v>
       </c>
       <c r="AD6" t="n">
-        <v>100162.8433098126</v>
+        <v>129256.4750173689</v>
       </c>
       <c r="AE6" t="n">
-        <v>137047.2210892065</v>
+        <v>176854.4115119097</v>
       </c>
       <c r="AF6" t="n">
         <v>2.310062184463372e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>123967.6266554723</v>
+        <v>159975.6746939879</v>
       </c>
     </row>
     <row r="7">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.2166880645771</v>
+        <v>138.9509176333984</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.1208938581381</v>
+        <v>190.118775587778</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.0342681987374</v>
+        <v>171.9741064791115</v>
       </c>
       <c r="AD7" t="n">
-        <v>100216.6880645771</v>
+        <v>138950.9176333984</v>
       </c>
       <c r="AE7" t="n">
-        <v>137120.8938581381</v>
+        <v>190118.775587778</v>
       </c>
       <c r="AF7" t="n">
         <v>2.304373390556768e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>124034.2681987374</v>
+        <v>171974.1064791115</v>
       </c>
     </row>
   </sheetData>
@@ -6760,28 +6760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.58585160673356</v>
+        <v>125.3439250592471</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.2070703002341</v>
+        <v>171.5010880496881</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.639237626003</v>
+        <v>155.1332649095624</v>
       </c>
       <c r="AD2" t="n">
-        <v>88585.85160673356</v>
+        <v>125343.925059247</v>
       </c>
       <c r="AE2" t="n">
-        <v>121207.070300234</v>
+        <v>171501.0880496881</v>
       </c>
       <c r="AF2" t="n">
         <v>3.82192655810043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109639.237626003</v>
+        <v>155133.2649095624</v>
       </c>
     </row>
   </sheetData>
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6117743212386</v>
+        <v>195.4866734314988</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9689417981055</v>
+        <v>267.4734908522154</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6933094581419</v>
+        <v>241.9461962867604</v>
       </c>
       <c r="AD2" t="n">
-        <v>147611.7743212386</v>
+        <v>195486.6734314988</v>
       </c>
       <c r="AE2" t="n">
-        <v>201968.9417981055</v>
+        <v>267473.4908522154</v>
       </c>
       <c r="AF2" t="n">
         <v>1.809229148609526e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.31901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>182693.3094581419</v>
+        <v>241946.1962867604</v>
       </c>
     </row>
     <row r="3">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.49162679261</v>
+        <v>150.365514873013</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.2335653890447</v>
+        <v>205.7367311075005</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.8498707273971</v>
+        <v>186.1015062439749</v>
       </c>
       <c r="AD3" t="n">
-        <v>102491.62679261</v>
+        <v>150365.514873013</v>
       </c>
       <c r="AE3" t="n">
-        <v>140233.5653890447</v>
+        <v>205736.7311075005</v>
       </c>
       <c r="AF3" t="n">
         <v>2.338485394945639e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.98828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>126849.8707273972</v>
+        <v>186101.5062439749</v>
       </c>
     </row>
     <row r="4">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.21113001806778</v>
+        <v>136.4634199259542</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.376800859929</v>
+        <v>186.7152714838009</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.5520675849178</v>
+        <v>168.8954280299689</v>
       </c>
       <c r="AD4" t="n">
-        <v>98211.13001806778</v>
+        <v>136463.4199259542</v>
       </c>
       <c r="AE4" t="n">
-        <v>134376.800859929</v>
+        <v>186715.2714838009</v>
       </c>
       <c r="AF4" t="n">
         <v>2.530832695397078e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.376302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>121552.0675849178</v>
+        <v>168895.4280299689</v>
       </c>
     </row>
     <row r="5">
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.82406538891551</v>
+        <v>125.5562423507706</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.4789578413512</v>
+        <v>171.7915899347283</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.835352040393</v>
+        <v>155.3960417024164</v>
       </c>
       <c r="AD5" t="n">
-        <v>96824.06538891551</v>
+        <v>125556.2423507706</v>
       </c>
       <c r="AE5" t="n">
-        <v>132478.9578413512</v>
+        <v>171791.5899347283</v>
       </c>
       <c r="AF5" t="n">
         <v>2.588055013381066e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>119835.352040393</v>
+        <v>155396.0417024164</v>
       </c>
     </row>
   </sheetData>
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.1246826342177</v>
+        <v>215.3469804124432</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.6673638006694</v>
+        <v>294.6472390384367</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.8436715362602</v>
+        <v>266.5265200846925</v>
       </c>
       <c r="AD2" t="n">
-        <v>167124.6826342178</v>
+        <v>215346.9804124432</v>
       </c>
       <c r="AE2" t="n">
-        <v>228667.3638006694</v>
+        <v>294647.2390384367</v>
       </c>
       <c r="AF2" t="n">
         <v>1.576497914810131e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.17838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>206843.6715362602</v>
+        <v>266526.5200846925</v>
       </c>
     </row>
     <row r="3">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.3570741378331</v>
+        <v>154.894116063848</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.2048821471346</v>
+        <v>211.932963044582</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.0105916405114</v>
+        <v>191.7063785014494</v>
       </c>
       <c r="AD3" t="n">
-        <v>116357.0741378331</v>
+        <v>154894.116063848</v>
       </c>
       <c r="AE3" t="n">
-        <v>159204.8821471346</v>
+        <v>211932.963044582</v>
       </c>
       <c r="AF3" t="n">
         <v>2.126968566958023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.287760416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>144010.5916405114</v>
+        <v>191706.3785014494</v>
       </c>
     </row>
     <row r="4">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.8089052080936</v>
+        <v>140.4132669418129</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.2994355975593</v>
+        <v>192.1196264258481</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.0048929721514</v>
+        <v>173.7839989214086</v>
       </c>
       <c r="AD4" t="n">
-        <v>101808.9052080937</v>
+        <v>140413.2669418129</v>
       </c>
       <c r="AE4" t="n">
-        <v>139299.4355975593</v>
+        <v>192119.6264258481</v>
       </c>
       <c r="AF4" t="n">
         <v>2.316108247063531e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.610677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>126004.8929721514</v>
+        <v>173783.9989214086</v>
       </c>
     </row>
     <row r="5">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.09020902888311</v>
+        <v>137.5930855361171</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.5795955447548</v>
+        <v>188.2609298089544</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.6400692331571</v>
+        <v>170.2935708939153</v>
       </c>
       <c r="AD5" t="n">
-        <v>99090.20902888311</v>
+        <v>137593.0855361171</v>
       </c>
       <c r="AE5" t="n">
-        <v>135579.5955447548</v>
+        <v>188260.9298089544</v>
       </c>
       <c r="AF5" t="n">
         <v>2.415064091722223e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>122640.0692331571</v>
+        <v>170293.5708939153</v>
       </c>
     </row>
     <row r="6">
@@ -8096,28 +8096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.52935791079769</v>
+        <v>127.4494748221635</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.8122143019856</v>
+        <v>174.3819941256086</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.9459257791713</v>
+        <v>157.739221352975</v>
       </c>
       <c r="AD6" t="n">
-        <v>98529.35791079768</v>
+        <v>127449.4748221635</v>
       </c>
       <c r="AE6" t="n">
-        <v>134812.2143019857</v>
+        <v>174381.9941256086</v>
       </c>
       <c r="AF6" t="n">
         <v>2.438808079619808e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>121945.9257791713</v>
+        <v>157739.221352975</v>
       </c>
     </row>
   </sheetData>
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.0617396717763</v>
+        <v>269.6055951434823</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.7839836055803</v>
+        <v>368.8862694347237</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.2228455212153</v>
+        <v>333.6802816150038</v>
       </c>
       <c r="AD2" t="n">
-        <v>211061.7396717762</v>
+        <v>269605.5951434823</v>
       </c>
       <c r="AE2" t="n">
-        <v>288783.9836055803</v>
+        <v>368886.2694347237</v>
       </c>
       <c r="AF2" t="n">
         <v>1.219219311884971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>261222.8455212153</v>
+        <v>333680.2816150038</v>
       </c>
     </row>
     <row r="3">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.2956890235412</v>
+        <v>174.0756984886156</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.4350893776116</v>
+        <v>238.1780503498286</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.0735650581192</v>
+        <v>215.446671509503</v>
       </c>
       <c r="AD3" t="n">
-        <v>125295.6890235412</v>
+        <v>174075.6984886157</v>
       </c>
       <c r="AE3" t="n">
-        <v>171435.0893776116</v>
+        <v>238178.0503498286</v>
       </c>
       <c r="AF3" t="n">
         <v>1.786078272507819e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>155073.5650581192</v>
+        <v>215446.671509503</v>
       </c>
     </row>
     <row r="4">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6300915069054</v>
+        <v>157.6141116062852</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.3149247899468</v>
+        <v>215.6545809434771</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.8238161784668</v>
+        <v>195.0728104113987</v>
       </c>
       <c r="AD4" t="n">
-        <v>118630.0915069054</v>
+        <v>157614.1116062852</v>
       </c>
       <c r="AE4" t="n">
-        <v>162314.9247899468</v>
+        <v>215654.5809434771</v>
       </c>
       <c r="AF4" t="n">
         <v>1.98393252678218e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.079427083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>146823.8161784668</v>
+        <v>195072.8104113987</v>
       </c>
     </row>
     <row r="5">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.797730139536</v>
+        <v>144.8490700466203</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.7571218432923</v>
+        <v>198.1888879276641</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.9417053025042</v>
+        <v>179.2740186237553</v>
       </c>
       <c r="AD5" t="n">
-        <v>105797.730139536</v>
+        <v>144849.0700466203</v>
       </c>
       <c r="AE5" t="n">
-        <v>144757.1218432923</v>
+        <v>198188.8879276641</v>
       </c>
       <c r="AF5" t="n">
         <v>2.081690593454373e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.6953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>130941.7053025042</v>
+        <v>179274.0186237553</v>
       </c>
     </row>
     <row r="6">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.608275968638</v>
+        <v>142.558130649237</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.7614140547702</v>
+        <v>195.0543235750527</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.2319036608154</v>
+        <v>176.4386126935675</v>
       </c>
       <c r="AD6" t="n">
-        <v>103608.275968638</v>
+        <v>142558.130649237</v>
       </c>
       <c r="AE6" t="n">
-        <v>141761.4140547702</v>
+        <v>195054.3235750527</v>
       </c>
       <c r="AF6" t="n">
         <v>2.15043134879562e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>128231.9036608154</v>
+        <v>176438.6126935675</v>
       </c>
     </row>
     <row r="7">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.9362432739757</v>
+        <v>140.8860979545747</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.4736651570579</v>
+        <v>192.7665746773405</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.1624943070243</v>
+        <v>174.3692033397764</v>
       </c>
       <c r="AD7" t="n">
-        <v>101936.2432739757</v>
+        <v>140886.0979545747</v>
       </c>
       <c r="AE7" t="n">
-        <v>139473.6651570579</v>
+        <v>192766.5746773405</v>
       </c>
       <c r="AF7" t="n">
         <v>2.1942157396843e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>126162.4943070243</v>
+        <v>174369.2033397764</v>
       </c>
     </row>
     <row r="8">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.5696843207042</v>
+        <v>140.5195390013033</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.9721230257525</v>
+        <v>192.2650325460351</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.7088186528118</v>
+        <v>173.9155276855638</v>
       </c>
       <c r="AD8" t="n">
-        <v>101569.6843207042</v>
+        <v>140519.5390013033</v>
       </c>
       <c r="AE8" t="n">
-        <v>138972.1230257525</v>
+        <v>192265.0325460351</v>
       </c>
       <c r="AF8" t="n">
         <v>2.206127850527537e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>125708.8186528118</v>
+        <v>173915.5276855638</v>
       </c>
     </row>
   </sheetData>
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.0841902316822</v>
+        <v>177.6829001777118</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.9869279843506</v>
+        <v>243.1135828393546</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.0001053837963</v>
+        <v>219.9111637052935</v>
       </c>
       <c r="AD2" t="n">
-        <v>130084.1902316822</v>
+        <v>177682.9001777118</v>
       </c>
       <c r="AE2" t="n">
-        <v>177986.9279843506</v>
+        <v>243113.5828393546</v>
       </c>
       <c r="AF2" t="n">
         <v>2.07375172382843e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>161000.1053837963</v>
+        <v>219911.1637052936</v>
       </c>
     </row>
     <row r="3">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.03034814618795</v>
+        <v>136.1093161030117</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.1294471272899</v>
+        <v>186.230771011293</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.3283209453585</v>
+        <v>168.4571676025563</v>
       </c>
       <c r="AD3" t="n">
-        <v>98030.34814618794</v>
+        <v>136109.3161030117</v>
       </c>
       <c r="AE3" t="n">
-        <v>134129.4471272899</v>
+        <v>186230.771011293</v>
       </c>
       <c r="AF3" t="n">
         <v>2.619128667828109e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>121328.3209453585</v>
+        <v>168457.1676025563</v>
       </c>
     </row>
     <row r="4">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.19099751669884</v>
+        <v>123.717069095393</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.2445223327157</v>
+        <v>169.2751519481244</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.8141679206511</v>
+        <v>153.1197690254102</v>
       </c>
       <c r="AD4" t="n">
-        <v>95190.99751669884</v>
+        <v>123717.069095393</v>
       </c>
       <c r="AE4" t="n">
-        <v>130244.5223327157</v>
+        <v>169275.1519481244</v>
       </c>
       <c r="AF4" t="n">
         <v>2.760297687200403e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>117814.1679206511</v>
+        <v>153119.7690254103</v>
       </c>
     </row>
     <row r="5">
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.24863581291839</v>
+        <v>123.7747073916126</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.3233855924254</v>
+        <v>169.3540152078341</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.8855045815394</v>
+        <v>153.1911056862986</v>
       </c>
       <c r="AD5" t="n">
-        <v>95248.63581291839</v>
+        <v>123774.7073916126</v>
       </c>
       <c r="AE5" t="n">
-        <v>130323.3855924254</v>
+        <v>169354.0152078341</v>
       </c>
       <c r="AF5" t="n">
         <v>2.761831799560459e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>117885.5045815394</v>
+        <v>153191.1056862986</v>
       </c>
     </row>
   </sheetData>
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.9034411481689</v>
+        <v>146.5413400415364</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.0064926596013</v>
+        <v>200.5043263923903</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7855221321355</v>
+        <v>181.368474891147</v>
       </c>
       <c r="AD2" t="n">
-        <v>108903.4411481689</v>
+        <v>146541.3400415364</v>
       </c>
       <c r="AE2" t="n">
-        <v>149006.4926596013</v>
+        <v>200504.3263923903</v>
       </c>
       <c r="AF2" t="n">
         <v>2.665221445867706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.522135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>134785.5221321355</v>
+        <v>181368.474891147</v>
       </c>
     </row>
     <row r="3">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.46842550389081</v>
+        <v>129.9706737519923</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.5193791933935</v>
+        <v>177.8316097288454</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.4445472142733</v>
+        <v>160.8596104846059</v>
       </c>
       <c r="AD3" t="n">
-        <v>92468.42550389082</v>
+        <v>129970.6737519923</v>
       </c>
       <c r="AE3" t="n">
-        <v>126519.3791933935</v>
+        <v>177831.6097288454</v>
       </c>
       <c r="AF3" t="n">
         <v>3.108645858478362e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>114444.5472142733</v>
+        <v>160859.6104846059</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.51380054571106</v>
+        <v>129.7376702163198</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.5814633274174</v>
+        <v>177.5128040119478</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.5007061256817</v>
+        <v>160.5712311378823</v>
       </c>
       <c r="AD2" t="n">
-        <v>92513.80054571107</v>
+        <v>129737.6702163198</v>
       </c>
       <c r="AE2" t="n">
-        <v>126581.4633274174</v>
+        <v>177512.8040119478</v>
       </c>
       <c r="AF2" t="n">
         <v>3.250299466794693e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.845052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>114500.7061256817</v>
+        <v>160571.2311378823</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.75643570108842</v>
+        <v>127.8788201452119</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.1769592175408</v>
+        <v>174.9694433379819</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.3256845133082</v>
+        <v>158.2706052370098</v>
       </c>
       <c r="AD3" t="n">
-        <v>90756.43570108843</v>
+        <v>127878.8201452119</v>
       </c>
       <c r="AE3" t="n">
-        <v>124176.9592175408</v>
+        <v>174969.4433379819</v>
       </c>
       <c r="AF3" t="n">
         <v>3.40839291699801e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>112325.6845133082</v>
+        <v>158270.6052370098</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.90860153815851</v>
+        <v>133.3121435392094</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.5946239302171</v>
+        <v>182.4035561069564</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.939979120076</v>
+        <v>164.9952167171586</v>
       </c>
       <c r="AD2" t="n">
-        <v>96908.6015381585</v>
+        <v>133312.1435392094</v>
       </c>
       <c r="AE2" t="n">
-        <v>132594.6239302171</v>
+        <v>182403.5561069564</v>
       </c>
       <c r="AF2" t="n">
         <v>4.04832267656812e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>119939.979120076</v>
+        <v>164995.2167171586</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.5026315922757</v>
+        <v>210.1910773267973</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.6608284857298</v>
+        <v>287.5927049742688</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.7465318724234</v>
+        <v>260.1452608505058</v>
       </c>
       <c r="AD2" t="n">
-        <v>152502.6315922757</v>
+        <v>210191.0773267973</v>
       </c>
       <c r="AE2" t="n">
-        <v>208660.8284857298</v>
+        <v>287592.7049742689</v>
       </c>
       <c r="AF2" t="n">
         <v>1.683650940068367e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>188746.5318724234</v>
+        <v>260145.2608505058</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.1432126437208</v>
+        <v>152.5576336048847</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.1757791822157</v>
+        <v>208.7360846658989</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.2705820111906</v>
+        <v>188.8146057083798</v>
       </c>
       <c r="AD3" t="n">
-        <v>114143.2126437208</v>
+        <v>152557.6336048847</v>
       </c>
       <c r="AE3" t="n">
-        <v>156175.7791822157</v>
+        <v>208736.0846658989</v>
       </c>
       <c r="AF3" t="n">
         <v>2.232257240926954e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.118489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>141270.5820111907</v>
+        <v>188814.6057083798</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.1407930586966</v>
+        <v>138.6225338275649</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.0170509628412</v>
+        <v>189.6694663773658</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.9403359236232</v>
+        <v>171.5676787091314</v>
       </c>
       <c r="AD4" t="n">
-        <v>100140.7930586966</v>
+        <v>138622.5338275649</v>
       </c>
       <c r="AE4" t="n">
-        <v>137017.0509628412</v>
+        <v>189669.4663773658</v>
       </c>
       <c r="AF4" t="n">
         <v>2.410003789411354e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.51953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>123940.3359236231</v>
+        <v>171567.6787091314</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.60446944081926</v>
+        <v>126.4326206285468</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.5467410941623</v>
+        <v>172.990689357462</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.8012275581994</v>
+        <v>156.4807007591914</v>
       </c>
       <c r="AD5" t="n">
-        <v>97604.46944081926</v>
+        <v>126432.6206285468</v>
       </c>
       <c r="AE5" t="n">
-        <v>133546.7410941623</v>
+        <v>172990.689357462</v>
       </c>
       <c r="AF5" t="n">
         <v>2.514368990706266e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.20703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>120801.2275581994</v>
+        <v>156480.7007591914</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.74643603008508</v>
+        <v>126.5745872178127</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.7409860447196</v>
+        <v>173.1849343080193</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.9769340433</v>
+        <v>156.6564072442921</v>
       </c>
       <c r="AD6" t="n">
-        <v>97746.43603008508</v>
+        <v>126574.5872178127</v>
       </c>
       <c r="AE6" t="n">
-        <v>133740.9860447196</v>
+        <v>173184.9343080193</v>
       </c>
       <c r="AF6" t="n">
         <v>2.509580829964009e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.220052083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>120976.9340433</v>
+        <v>156656.4072442921</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.352720166115</v>
+        <v>262.472856298056</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.9219659680309</v>
+        <v>359.1269414721822</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.542746759943</v>
+        <v>324.8523702159043</v>
       </c>
       <c r="AD2" t="n">
-        <v>194352.720166115</v>
+        <v>262472.856298056</v>
       </c>
       <c r="AE2" t="n">
-        <v>265921.9659680309</v>
+        <v>359126.9414721822</v>
       </c>
       <c r="AF2" t="n">
         <v>1.298498046527359e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>240542.746759943</v>
+        <v>324852.3702159043</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.9910278870701</v>
+        <v>171.6385064330883</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.2817503362199</v>
+        <v>234.8433766581326</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.2211762690978</v>
+        <v>212.4302543946975</v>
       </c>
       <c r="AD3" t="n">
-        <v>122991.0278870701</v>
+        <v>171638.5064330882</v>
       </c>
       <c r="AE3" t="n">
-        <v>168281.7503362199</v>
+        <v>234843.3766581326</v>
       </c>
       <c r="AF3" t="n">
         <v>1.862335122773668e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.795572916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>152221.1762690978</v>
+        <v>212430.2543946975</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.0169341607582</v>
+        <v>155.6302472879955</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.4252905726129</v>
+        <v>212.9401702612778</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.4506663495885</v>
+        <v>192.6174592750083</v>
       </c>
       <c r="AD4" t="n">
-        <v>107016.9341607582</v>
+        <v>155630.2472879955</v>
       </c>
       <c r="AE4" t="n">
-        <v>146425.2905726129</v>
+        <v>212940.1702612778</v>
       </c>
       <c r="AF4" t="n">
         <v>2.054967928033281e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>132450.6663495885</v>
+        <v>192617.4592750084</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.0313646908251</v>
+        <v>142.9766798626643</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.3403027098234</v>
+        <v>195.6270010739518</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.7555439951059</v>
+        <v>176.9566346557297</v>
       </c>
       <c r="AD5" t="n">
-        <v>104031.3646908251</v>
+        <v>142976.6798626643</v>
       </c>
       <c r="AE5" t="n">
-        <v>142340.3027098234</v>
+        <v>195627.0010739518</v>
       </c>
       <c r="AF5" t="n">
         <v>2.157220781700079e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>128755.5439951059</v>
+        <v>176956.6346557297</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.8596443322107</v>
+        <v>140.7034742775646</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.3688591056283</v>
+        <v>192.5167009056674</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.0676907980469</v>
+        <v>174.1431771701717</v>
       </c>
       <c r="AD6" t="n">
-        <v>101859.6443322107</v>
+        <v>140703.4742775646</v>
       </c>
       <c r="AE6" t="n">
-        <v>139368.8591056283</v>
+        <v>192516.7009056674</v>
       </c>
       <c r="AF6" t="n">
         <v>2.229338600018087e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>126067.6907980469</v>
+        <v>174143.1771701717</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.8862722247411</v>
+        <v>139.730102170095</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.0370484460424</v>
+        <v>191.1848902460815</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.8629862786035</v>
+        <v>172.9384726507282</v>
       </c>
       <c r="AD7" t="n">
-        <v>100886.2722247411</v>
+        <v>139730.102170095</v>
       </c>
       <c r="AE7" t="n">
-        <v>138037.0484460424</v>
+        <v>191184.8902460815</v>
       </c>
       <c r="AF7" t="n">
         <v>2.254367281296921e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>124862.9862786035</v>
+        <v>172938.4726507282</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.0247352449682</v>
+        <v>139.8685651903222</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.2264996588744</v>
+        <v>191.3743414589135</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.0343565335793</v>
+        <v>173.1098429057041</v>
       </c>
       <c r="AD8" t="n">
-        <v>101024.7352449682</v>
+        <v>139868.5651903221</v>
       </c>
       <c r="AE8" t="n">
-        <v>138226.4996588744</v>
+        <v>191374.3414589135</v>
       </c>
       <c r="AF8" t="n">
         <v>2.253486875422792e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>125034.3565335793</v>
+        <v>173109.842905704</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.8612305435527</v>
+        <v>149.9080921057526</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.4757617806223</v>
+        <v>205.1108650972669</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.7826364458148</v>
+        <v>185.5353720073493</v>
       </c>
       <c r="AD2" t="n">
-        <v>104861.2305435527</v>
+        <v>149908.0921057526</v>
       </c>
       <c r="AE2" t="n">
-        <v>143475.7617806223</v>
+        <v>205110.8650972669</v>
       </c>
       <c r="AF2" t="n">
         <v>4.277053381720554e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.290364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>129782.6364458148</v>
+        <v>185535.3720073493</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.5262525092733</v>
+        <v>159.7076263930645</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.9633829910191</v>
+        <v>218.5190202341011</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.2693338073636</v>
+        <v>197.6638716363922</v>
       </c>
       <c r="AD2" t="n">
-        <v>112526.2525092733</v>
+        <v>159707.6263930645</v>
       </c>
       <c r="AE2" t="n">
-        <v>153963.3829910191</v>
+        <v>218519.0202341011</v>
       </c>
       <c r="AF2" t="n">
         <v>2.443048161945493e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>139269.3338073636</v>
+        <v>197663.8716363922</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.95854650917846</v>
+        <v>131.6294927247508</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.5582284923261</v>
+        <v>180.1012790293006</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.2888115976594</v>
+        <v>162.9126657325273</v>
       </c>
       <c r="AD3" t="n">
-        <v>93958.54650917846</v>
+        <v>131629.4927247508</v>
       </c>
       <c r="AE3" t="n">
-        <v>128558.2284923261</v>
+        <v>180101.2790293006</v>
       </c>
       <c r="AF3" t="n">
         <v>2.946209688796686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.350260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116288.8115976594</v>
+        <v>162912.6657325273</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.62441083624812</v>
+        <v>131.2953570518205</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.1010493235975</v>
+        <v>179.6440998605721</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.8752649671392</v>
+        <v>162.499119102007</v>
       </c>
       <c r="AD4" t="n">
-        <v>93624.41083624812</v>
+        <v>131295.3570518205</v>
       </c>
       <c r="AE4" t="n">
-        <v>128101.0493235975</v>
+        <v>179644.0998605721</v>
       </c>
       <c r="AF4" t="n">
         <v>2.967801320040168e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>115875.2649671392</v>
+        <v>162499.119102007</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.575506690788</v>
+        <v>190.8368635479588</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.7639011897084</v>
+        <v>261.1114158344249</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3211709709603</v>
+        <v>236.1913087794374</v>
       </c>
       <c r="AD2" t="n">
-        <v>133575.506690788</v>
+        <v>190836.8635479588</v>
       </c>
       <c r="AE2" t="n">
-        <v>182763.9011897084</v>
+        <v>261111.4158344249</v>
       </c>
       <c r="AF2" t="n">
         <v>1.942656487720617e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>165321.1709709603</v>
+        <v>236191.3087794374</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.3487274349107</v>
+        <v>138.568519231399</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.3015559497945</v>
+        <v>189.5955612239358</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.197688153927</v>
+        <v>171.5008269598183</v>
       </c>
       <c r="AD3" t="n">
-        <v>100348.7274349107</v>
+        <v>138568.519231399</v>
       </c>
       <c r="AE3" t="n">
-        <v>137301.5559497945</v>
+        <v>189595.5612239359</v>
       </c>
       <c r="AF3" t="n">
         <v>2.467061464246386e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>124197.688153927</v>
+        <v>171500.8269598183</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.43858746671121</v>
+        <v>134.5568940367142</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.9515299421059</v>
+        <v>184.106678652158</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.3582611196018</v>
+        <v>166.5357956369941</v>
       </c>
       <c r="AD4" t="n">
-        <v>96438.58746671121</v>
+        <v>134556.8940367142</v>
       </c>
       <c r="AE4" t="n">
-        <v>131951.5299421058</v>
+        <v>184106.678652158</v>
       </c>
       <c r="AF4" t="n">
         <v>2.648094048787622e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>119358.2611196018</v>
+        <v>166535.7956369941</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.07790633006165</v>
+        <v>124.7095957885042</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.4580300988135</v>
+        <v>170.6331707568258</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.9118602087217</v>
+        <v>154.348180425001</v>
       </c>
       <c r="AD5" t="n">
-        <v>96077.90633006165</v>
+        <v>124709.5957885042</v>
       </c>
       <c r="AE5" t="n">
-        <v>131458.0300988135</v>
+        <v>170633.1707568258</v>
       </c>
       <c r="AF5" t="n">
         <v>2.67312637311054e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>118911.8602087217</v>
+        <v>154348.180425001</v>
       </c>
     </row>
   </sheetData>
